--- a/individual_worklog.xlsx
+++ b/individual_worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshchethala/Desktop/University/Spring_25/BAIM_660/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90E3B2-5E55-3D44-BB0F-DC0F52E4E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4376A37-2195-D248-BD9A-3E51C5690A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{1E50C13E-550E-4D4E-ABAF-2967E3D1814F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19120" windowHeight="21100" xr2:uid="{1E50C13E-550E-4D4E-ABAF-2967E3D1814F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Downloaded the 10X psot cleaned data from the website https://sraf.nd.edu/sec-edgar-data/cleaned-10x-files/. Because of size constraints, we have only condiered the files from the last four years i.e., 2024,2023,2022,2021.</t>
-  </si>
-  <si>
     <t>Individual</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>As the results from the FinBERT were improper the probability values of certain sentiments were more than 100 which is not an optimum results. So I have pivoted to use the LM lexicon based sentiment analysis. For this approach I have downloaded the LM lexicon dataset from https://sraf.nd.edu/loughranmcdonald-master-dictionary/ . Then applied the text normalization necessary for this method like removing stop words, lowercase and removing numbers. There are 9 different sentiments in the LM dataset but i have considered only 7 as complexity and syllables are not useful in the sentiment analysis as they define how complex the words are and for the syllables are used to check the readability score. The results are better than the FinBERT. Using the results i have applied the dominant score to get the final sentiment of the document</t>
+  </si>
+  <si>
+    <t>Collected the data that was downloaded and understood the file structure for data cleaning process. Because of size constraints, I have only condiered the files from the last four years i.e., 2024,2023,2022,2021.</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,13 +502,13 @@
         <v>45744</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -516,27 +516,27 @@
         <v>45745</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45750</v>
+        <v>45749</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.2">
@@ -544,13 +544,13 @@
         <v>45752</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/individual_worklog.xlsx
+++ b/individual_worklog.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshchethala/Desktop/University/Spring_25/BAIM_660/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4376A37-2195-D248-BD9A-3E51C5690A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BBB3F-5A6C-3A40-B719-B05BC4A8950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19120" windowHeight="21100" xr2:uid="{1E50C13E-550E-4D4E-ABAF-2967E3D1814F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32620" windowHeight="21100" xr2:uid="{1E50C13E-550E-4D4E-ABAF-2967E3D1814F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Individual</t>
   </si>
   <si>
-    <t>60min</t>
-  </si>
-  <si>
-    <t>Understood the file structure, YearN --&gt; QTRX(i) --&gt; 10X. Extracted all the 10K files from the 10X files using pyton. For better and easy to use, created a dataframe of all the 10K filings. Saved the dataframe into a .csv file for future uses.</t>
-  </si>
-  <si>
     <t>120mins</t>
   </si>
   <si>
@@ -71,7 +65,7 @@
     <t>As the results from the FinBERT were improper the probability values of certain sentiments were more than 100 which is not an optimum results. So I have pivoted to use the LM lexicon based sentiment analysis. For this approach I have downloaded the LM lexicon dataset from https://sraf.nd.edu/loughranmcdonald-master-dictionary/ . Then applied the text normalization necessary for this method like removing stop words, lowercase and removing numbers. There are 9 different sentiments in the LM dataset but i have considered only 7 as complexity and syllables are not useful in the sentiment analysis as they define how complex the words are and for the syllables are used to check the readability score. The results are better than the FinBERT. Using the results i have applied the dominant score to get the final sentiment of the document</t>
   </si>
   <si>
-    <t>Collected the data that was downloaded and understood the file structure for data cleaning process. Because of size constraints, I have only condiered the files from the last four years i.e., 2024,2023,2022,2021.</t>
+    <t>Collected the data that was downloaded and understood the file structure for data cleaning process. Because of size constraints, I have only condiered the files from the last four years i.e., 2024,2023,2022,2021.Understood the file structure, YearN --&gt; QTRX(i) --&gt; 10X. Extracted all the 10K files from the 10X files using pyton. For better and easy to use, created a dataframe of all the 10K filings. Saved the dataframe into a .csv file for future uses.</t>
   </si>
 </sst>
 </file>
@@ -472,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3DEA50-3D88-EF42-995C-4CC32849D5B7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,12 +491,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -511,9 +505,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -525,9 +519,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -536,21 +530,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
